--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="IMPORTANTE" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet name="chiusi" sheetId="2" r:id="rId2"/>
     <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -30,9 +30,6 @@
     <t>DATA INSERIMENTO</t>
   </si>
   <si>
-    <t>STATO</t>
-  </si>
-  <si>
     <t>NOTE</t>
   </si>
   <si>
@@ -43,13 +40,55 @@
   </si>
   <si>
     <t>devi andare al velodromo 02/12/2014</t>
+  </si>
+  <si>
+    <t>ISACA CISA</t>
+  </si>
+  <si>
+    <t>STATO
+(A/C)</t>
+  </si>
+  <si>
+    <t>Priorità
+(A/B)</t>
+  </si>
+  <si>
+    <t>Urgenza
+(A/B)</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Next Step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fare documenti da far firmare (Stefnia, Sedgh, etc.), far firmare applicare </t>
+  </si>
+  <si>
+    <t>Disdetta appartamento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fare lettera e inviare e parlare con Donato anche riguardo al fatto del fatto se sia interessato o meno ai mobili </t>
+  </si>
+  <si>
+    <t>http://www.pmi.org/Certification/~/media/PDF/Certifications/pdc_pmphandbook.ashx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP Cetrtification </t>
+  </si>
+  <si>
+    <t>occorre studiare il processo al link a lato e decidere se e come procedere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attenzione ai tempi - prevedere un margine di sicurezza di 2 errori tra orale e teoria </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +100,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,7 +127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -238,40 +285,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -571,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,394 +719,1041 @@
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="16"/>
-    <col min="6" max="6" width="49" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="47.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="23">
+        <v>42063</v>
+      </c>
+      <c r="D2" s="23">
+        <v>42005</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="11">
-        <v>42063</v>
-      </c>
-      <c r="D2" s="11">
-        <v>42005</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="C3" s="24">
+        <v>41988</v>
+      </c>
+      <c r="D3" s="24">
+        <v>42006</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="B4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="24">
+        <v>41976</v>
+      </c>
+      <c r="D4" s="24">
+        <v>42006</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="24">
+        <v>42078</v>
+      </c>
+      <c r="D5" s="24">
+        <v>42006</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
         <v>23</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
         <v>33</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="10"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="21"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="47.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>34</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="21"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -663,7 +663,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
